--- a/medicine/Mort/Appel_des_morts_au_feu/Appel_des_morts_au_feu.xlsx
+++ b/medicine/Mort/Appel_des_morts_au_feu/Appel_des_morts_au_feu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appel des morts au feu est un cérémonial militaire chez les Pompiers de Paris. Il a lieu lors du rassemblement hebdomadaire en tenue de feu, tous les lundis matin. 
-Le chef de garde énonce un à un le nom des soldats, ensuite un personnel désigné lui répond : « mort au feu »[1] à chaque fois.
+Le chef de garde énonce un à un le nom des soldats, ensuite un personnel désigné lui répond : « mort au feu » à chaque fois.
 Le cérémonial est mis en place en 1880, conjointement avec l'installation dans les casernes des plaques de marbre sur lesquelles sont gravés le nom des soldats du feu tombés.
 Ce rite a plusieurs finalités : rendre hommage aux disparus, mettre en exergue le sens du devoir et du sacrifice suprême, maintenir la vigilance du sapeur-pompier et lui rappeler la dangerosité de son métier, alimenter l'esprit de Corps, entretenir l'identité « pompiers de Paris ».
 </t>
